--- a/config_5.18/shoping_config_vivo.xlsx
+++ b/config_5.18/shoping_config_vivo.xlsx
@@ -5784,34 +5784,34 @@
     <t>"jing_bi","prop_gold_hammer_3"</t>
   </si>
   <si>
-    <t>9980万金币,"300万小游戏币","铁锹*5"</t>
+    <t>"9980万金币","300万小游戏币","铁锹*5"</t>
   </si>
   <si>
     <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_3"</t>
   </si>
   <si>
-    <t>4980万金币,"150万小游戏币","铁锹*2"</t>
-  </si>
-  <si>
-    <t>2980万金币,"90万小游戏币","阳光*12"</t>
+    <t>"4980万金币","150万小游戏币","铁锹*2"</t>
+  </si>
+  <si>
+    <t>"2980万金币","90万小游戏币","阳光*12"</t>
   </si>
   <si>
     <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_2"</t>
   </si>
   <si>
-    <t>1980万金币,"60万小游戏币","阳光*8"</t>
-  </si>
-  <si>
-    <t>980万金币,"30万小游戏币","阳光*5"</t>
-  </si>
-  <si>
-    <t>480万金币,"15万小游戏币","水滴*8"</t>
+    <t>"1980万金币","60万小游戏币","阳光*8"</t>
+  </si>
+  <si>
+    <t>"980万金币","30万小游戏币","阳光*5"</t>
+  </si>
+  <si>
+    <t>"480万金币","15万小游戏币","水滴*8"</t>
   </si>
   <si>
     <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_1"</t>
   </si>
   <si>
-    <t>180万金币,"10万小游戏币","水滴*5"</t>
+    <t>"180万金币","10万小游戏币","水滴*5"</t>
   </si>
   <si>
     <t>id|不能重复</t>
@@ -6711,8 +6711,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -6748,120 +6748,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6877,9 +6764,68 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6891,12 +6837,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -6977,7 +6977,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6989,37 +7061,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7031,31 +7073,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7067,55 +7103,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7128,6 +7116,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7169,8 +7169,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -7191,15 +7193,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -7211,6 +7204,48 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7229,41 +7264,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -7272,10 +7272,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7284,133 +7284,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -10167,7 +10167,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I637" sqref="I637"/>
+      <selection pane="bottomRight" activeCell="J628" sqref="J628:J634"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
